--- a/datasets/exclusion1.xlsx
+++ b/datasets/exclusion1.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U63"/>
+  <dimension ref="A1:V63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -463,6 +463,11 @@
           <t>reason</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Reason for exclusion</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -519,11 +524,16 @@
         </is>
       </c>
       <c r="T2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Nea</t>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
         </is>
       </c>
     </row>
@@ -592,11 +602,16 @@
         </is>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>Is the study a primary research?</t>
+          <t>The study is not primary research</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>The study is not primary research</t>
         </is>
       </c>
     </row>
@@ -670,11 +685,16 @@
         </is>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>Nea</t>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
         </is>
       </c>
     </row>
@@ -733,11 +753,16 @@
         </is>
       </c>
       <c r="T5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>Nea</t>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
         </is>
       </c>
     </row>
@@ -791,11 +816,16 @@
         </is>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>Bray</t>
+          <t>The study is not written entirely in English</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>The study is not written entirely in English</t>
         </is>
       </c>
     </row>
@@ -864,11 +894,16 @@
         </is>
       </c>
       <c r="T7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>Nea</t>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
         </is>
       </c>
     </row>
@@ -937,11 +972,16 @@
         </is>
       </c>
       <c r="T8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>Nea</t>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
         </is>
       </c>
     </row>
@@ -1010,11 +1050,16 @@
         </is>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>Is the study a primary research?</t>
+          <t>The study is not primary research</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>The study is not primary research</t>
         </is>
       </c>
     </row>
@@ -1078,11 +1123,16 @@
         </is>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>Is the study a primary research?</t>
+          <t>The study is not primary research</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>The study is not primary research</t>
         </is>
       </c>
     </row>
@@ -1161,11 +1211,16 @@
         </is>
       </c>
       <c r="T11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>Nea</t>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
         </is>
       </c>
     </row>
@@ -1229,11 +1284,16 @@
         </is>
       </c>
       <c r="T12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>Is the study a primary research?</t>
+          <t>The study is not primary research</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>The study is not primary research</t>
         </is>
       </c>
     </row>
@@ -1302,11 +1362,16 @@
         </is>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>Nea</t>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
         </is>
       </c>
     </row>
@@ -1385,11 +1450,16 @@
         </is>
       </c>
       <c r="T14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>Nea</t>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
         </is>
       </c>
     </row>
@@ -1468,11 +1538,16 @@
         </is>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>Perro</t>
+          <t>The study does not analyze the relationship between outcome and exposure at individual human level</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>The study does not analyze the relationship between outcome and exposure at individual human level</t>
         </is>
       </c>
     </row>
@@ -1546,11 +1621,16 @@
         </is>
       </c>
       <c r="T16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>Nea</t>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
         </is>
       </c>
     </row>
@@ -1619,11 +1699,16 @@
         </is>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>Nea</t>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
         </is>
       </c>
     </row>
@@ -1702,11 +1787,16 @@
         </is>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>Nea</t>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
         </is>
       </c>
     </row>
@@ -1775,11 +1865,16 @@
         </is>
       </c>
       <c r="T19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>Nea</t>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
         </is>
       </c>
     </row>
@@ -1858,11 +1953,16 @@
         </is>
       </c>
       <c r="T20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>Perro</t>
+          <t>The study does not analyze the relationship between outcome and exposure at individual human level</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>The study does not analyze the relationship between outcome and exposure at individual human level</t>
         </is>
       </c>
     </row>
@@ -1946,11 +2046,16 @@
         </is>
       </c>
       <c r="T21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>Perro</t>
+          <t>The study does not analyze the relationship between outcome and exposure at individual human level</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>The study does not analyze the relationship between outcome and exposure at individual human level</t>
         </is>
       </c>
     </row>
@@ -2034,11 +2139,16 @@
         </is>
       </c>
       <c r="T22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>Perro</t>
+          <t>The study does not analyze the relationship between outcome and exposure at individual human level</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>The study does not analyze the relationship between outcome and exposure at individual human level</t>
         </is>
       </c>
     </row>
@@ -2112,11 +2222,16 @@
         </is>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>Nea</t>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
         </is>
       </c>
     </row>
@@ -2195,11 +2310,16 @@
         </is>
       </c>
       <c r="T24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>Nea</t>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
         </is>
       </c>
     </row>
@@ -2273,11 +2393,16 @@
         </is>
       </c>
       <c r="T25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>Nea</t>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
         </is>
       </c>
     </row>
@@ -2361,11 +2486,16 @@
         </is>
       </c>
       <c r="T26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>Perro</t>
+          <t>The study does not analyze the relationship between outcome and exposure at individual human level</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>The study does not analyze the relationship between outcome and exposure at individual human level</t>
         </is>
       </c>
     </row>
@@ -2459,11 +2589,16 @@
         </is>
       </c>
       <c r="T27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>Bray</t>
+          <t>The study does not include at least one human health outcome measured using either an eligible survey instrument, test, assay or diseases measure obtained from medical records</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>The study does not include at least one human health outcome measured using either an eligible survey instrument, test, assay or diseases measure obtained from medical records</t>
         </is>
       </c>
     </row>
@@ -2542,11 +2677,16 @@
         </is>
       </c>
       <c r="T28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>Nea</t>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
         </is>
       </c>
     </row>
@@ -2615,11 +2755,16 @@
         </is>
       </c>
       <c r="T29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>Nea</t>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
         </is>
       </c>
     </row>
@@ -2708,11 +2853,16 @@
         </is>
       </c>
       <c r="T30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>Bray</t>
+          <t>The study does not include more than one unit of measurement of exposure</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>The study does not include more than one unit of measurement of exposure</t>
         </is>
       </c>
     </row>
@@ -2801,11 +2951,16 @@
         </is>
       </c>
       <c r="T31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>Bray</t>
+          <t>The study does not include more than one unit of measurement of exposure</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>The study does not include more than one unit of measurement of exposure</t>
         </is>
       </c>
     </row>
@@ -2879,11 +3034,16 @@
         </is>
       </c>
       <c r="T32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>Perro</t>
+          <t>The study does not analyze the relationship between outcome and exposure at individual human level</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>The study does not analyze the relationship between outcome and exposure at individual human level</t>
         </is>
       </c>
     </row>
@@ -2947,11 +3107,16 @@
         </is>
       </c>
       <c r="T33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>Nea</t>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
         </is>
       </c>
     </row>
@@ -3035,11 +3200,16 @@
         </is>
       </c>
       <c r="T34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>Bray</t>
+          <t>The study does not report animal feeding operations that would be reasonably considered either large, concentrated or intensive by modern standards</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>The study does not report animal feeding operations that would be reasonably considered either large, concentrated or intensive by modern standards</t>
         </is>
       </c>
     </row>
@@ -3118,11 +3288,16 @@
         </is>
       </c>
       <c r="T35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>Perro</t>
+          <t>The study does not analyze the relationship between outcome and exposure at individual human level</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>The study does not analyze the relationship between outcome and exposure at individual human level</t>
         </is>
       </c>
     </row>
@@ -3216,11 +3391,16 @@
         </is>
       </c>
       <c r="T36">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>Bray</t>
+          <t>The study does not include at least one human health outcome measured using either an eligible survey instrument, test, assay or diseases measure obtained from medical records</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>The study does not include at least one human health outcome measured using either an eligible survey instrument, test, assay or diseases measure obtained from medical records</t>
         </is>
       </c>
     </row>
@@ -3304,11 +3484,16 @@
         </is>
       </c>
       <c r="T37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>Perro</t>
+          <t>The study does not analyze the relationship between outcome and exposure at individual human level</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>The study does not analyze the relationship between outcome and exposure at individual human level</t>
         </is>
       </c>
     </row>
@@ -3382,11 +3567,16 @@
         </is>
       </c>
       <c r="T38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>Nea</t>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
         </is>
       </c>
     </row>
@@ -3470,11 +3660,16 @@
         </is>
       </c>
       <c r="T39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>Perro</t>
+          <t>The study does not analyze the relationship between outcome and exposure at individual human level</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>The study does not analyze the relationship between outcome and exposure at individual human level</t>
         </is>
       </c>
     </row>
@@ -3543,11 +3738,16 @@
         </is>
       </c>
       <c r="T40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>Is the study a primary research?</t>
+          <t>The study is not primary research</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>The study is not primary research</t>
         </is>
       </c>
     </row>
@@ -3616,11 +3816,16 @@
         </is>
       </c>
       <c r="T41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>Is the study a primary research?</t>
+          <t>The study is not primary research</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>The study is not primary research</t>
         </is>
       </c>
     </row>
@@ -3694,11 +3899,16 @@
         </is>
       </c>
       <c r="T42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>Nea</t>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
         </is>
       </c>
     </row>
@@ -3767,11 +3977,16 @@
         </is>
       </c>
       <c r="T43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>Is the study a primary research?</t>
+          <t>The study is not primary research</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>The study is not primary research</t>
         </is>
       </c>
     </row>
@@ -3850,11 +4065,16 @@
         </is>
       </c>
       <c r="T44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>Nea</t>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
         </is>
       </c>
     </row>
@@ -3938,11 +4158,16 @@
         </is>
       </c>
       <c r="T45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>Perro</t>
+          <t>The study does not analyze the relationship between outcome and exposure at individual human level</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>The study does not analyze the relationship between outcome and exposure at individual human level</t>
         </is>
       </c>
     </row>
@@ -4041,11 +4266,16 @@
         </is>
       </c>
       <c r="T46">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>Bray</t>
+          <t>The study does not include at least one human health outcome measured using either an eligible survey instrument, test, assay or diseases measure obtained from medical records</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>The study does not include at least one human health outcome measured using either an eligible survey instrument, test, assay or diseases measure obtained from medical records</t>
         </is>
       </c>
     </row>
@@ -4129,11 +4359,16 @@
         </is>
       </c>
       <c r="T47">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>Perro</t>
+          <t>The study does not analyze the relationship between outcome and exposure at individual human level</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>The study does not analyze the relationship between outcome and exposure at individual human level</t>
         </is>
       </c>
     </row>
@@ -4212,11 +4447,16 @@
         </is>
       </c>
       <c r="T48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>Nea</t>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
         </is>
       </c>
     </row>
@@ -4290,11 +4530,16 @@
         </is>
       </c>
       <c r="T49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>Nea</t>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
         </is>
       </c>
     </row>
@@ -4373,11 +4618,16 @@
         </is>
       </c>
       <c r="T50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>Nea</t>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
         </is>
       </c>
     </row>
@@ -4461,11 +4711,16 @@
         </is>
       </c>
       <c r="T51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>Perro</t>
+          <t>The study does not analyze the relationship between outcome and exposure at individual human level</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>The study does not analyze the relationship between outcome and exposure at individual human level</t>
         </is>
       </c>
     </row>
@@ -4544,11 +4799,16 @@
         </is>
       </c>
       <c r="T52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>Nea</t>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
         </is>
       </c>
     </row>
@@ -4617,11 +4877,16 @@
         </is>
       </c>
       <c r="T53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>Is the study a primary research?</t>
+          <t>The study is not primary research</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>The study is not primary research</t>
         </is>
       </c>
     </row>
@@ -4695,11 +4960,16 @@
         </is>
       </c>
       <c r="T54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>Nea</t>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
         </is>
       </c>
     </row>
@@ -4768,11 +5038,16 @@
         </is>
       </c>
       <c r="T55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>Nea</t>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
         </is>
       </c>
     </row>
@@ -4851,11 +5126,16 @@
         </is>
       </c>
       <c r="T56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>Nea</t>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
         </is>
       </c>
     </row>
@@ -4944,11 +5224,16 @@
         </is>
       </c>
       <c r="T57">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>Bray</t>
+          <t>The study does not include at least one human health outcome measured using either an eligible survey instrument, test, assay or diseases measure obtained from medical records</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>The study does not include at least one human health outcome measured using either an eligible survey instrument, test, assay or diseases measure obtained from medical records</t>
         </is>
       </c>
     </row>
@@ -5022,11 +5307,16 @@
         </is>
       </c>
       <c r="T58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>Nea</t>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
         </is>
       </c>
     </row>
@@ -5100,11 +5390,16 @@
         </is>
       </c>
       <c r="T59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>Nea</t>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
         </is>
       </c>
     </row>
@@ -5183,11 +5478,16 @@
         </is>
       </c>
       <c r="T60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>Nea</t>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
         </is>
       </c>
     </row>
@@ -5261,11 +5561,16 @@
         </is>
       </c>
       <c r="T61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>Nea</t>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
         </is>
       </c>
     </row>
@@ -5339,11 +5644,16 @@
         </is>
       </c>
       <c r="T62">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>Nea</t>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>The study does not report a comparative association between a relevant animal feeding operation and measures of health in surrounding-community members only and include occupational exposure</t>
         </is>
       </c>
     </row>
@@ -5407,11 +5717,16 @@
         </is>
       </c>
       <c r="T63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>Is the study a primary research?</t>
+          <t>The study is not primary research</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>The study is not primary research</t>
         </is>
       </c>
     </row>
